--- a/data/pca/factorExposure/factorExposure_2014-11-24.xlsx
+++ b/data/pca/factorExposure/factorExposure_2014-11-24.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,21 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +707,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,27 +726,57 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>-0.0005543383779271346</v>
+        <v>0.00821011307062219</v>
       </c>
       <c r="C2">
-        <v>0.07409478050053556</v>
+        <v>-0.07008856521408775</v>
       </c>
       <c r="D2">
-        <v>0.1511257175191072</v>
+        <v>0.00925344065877989</v>
       </c>
       <c r="E2">
-        <v>0.1689107974128619</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.1816972925193139</v>
+      </c>
+      <c r="F2">
+        <v>-0.039340661071127</v>
+      </c>
+      <c r="G2">
+        <v>0.07097606529933326</v>
+      </c>
+      <c r="H2">
+        <v>0.05282677146887225</v>
+      </c>
+      <c r="I2">
+        <v>-0.105079110510278</v>
+      </c>
+      <c r="J2">
+        <v>-0.230243662708218</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -745,27 +790,57 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>0.01421095260089472</v>
+        <v>0.01172530601553702</v>
       </c>
       <c r="C4">
-        <v>0.1456807532317453</v>
+        <v>-0.1507648770899019</v>
       </c>
       <c r="D4">
-        <v>0.08009738730729667</v>
+        <v>-0.02168168065425998</v>
       </c>
       <c r="E4">
-        <v>0.07153961772353061</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.1057025483655789</v>
+      </c>
+      <c r="F4">
+        <v>0.06916215491753633</v>
+      </c>
+      <c r="G4">
+        <v>0.005750315518664202</v>
+      </c>
+      <c r="H4">
+        <v>0.09909946173251921</v>
+      </c>
+      <c r="I4">
+        <v>0.01757500998854643</v>
+      </c>
+      <c r="J4">
+        <v>-0.1374736068529818</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +854,377 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>0.01694279698665281</v>
+        <v>0.03186970748803916</v>
       </c>
       <c r="C6">
-        <v>0.07081463739642473</v>
+        <v>-0.0723253170766157</v>
       </c>
       <c r="D6">
-        <v>0.06214112517706626</v>
+        <v>-0.007957207340622927</v>
       </c>
       <c r="E6">
-        <v>0.09681982855400703</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.1121782729954502</v>
+      </c>
+      <c r="F6">
+        <v>-0.0344134104892312</v>
+      </c>
+      <c r="G6">
+        <v>-0.04208676154257463</v>
+      </c>
+      <c r="H6">
+        <v>0.03157584075306549</v>
+      </c>
+      <c r="I6">
+        <v>-0.04686754757807975</v>
+      </c>
+      <c r="J6">
+        <v>-0.008472952967853312</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>-0.01738750161347617</v>
+        <v>0.005939685216676367</v>
       </c>
       <c r="C7">
-        <v>0.04896070696093108</v>
+        <v>-0.06674109060636817</v>
       </c>
       <c r="D7">
-        <v>0.03567544717263769</v>
+        <v>-0.002263727696897205</v>
       </c>
       <c r="E7">
-        <v>0.05915728349161431</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.05557269030993697</v>
+      </c>
+      <c r="F7">
+        <v>0.01895731897489968</v>
+      </c>
+      <c r="G7">
+        <v>-0.05950199575586309</v>
+      </c>
+      <c r="H7">
+        <v>0.08148499358985799</v>
+      </c>
+      <c r="I7">
+        <v>-0.009482279698479647</v>
+      </c>
+      <c r="J7">
+        <v>-0.03568116091408802</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>-0.0159951834788167</v>
+        <v>-0.009162017459162961</v>
       </c>
       <c r="C8">
-        <v>0.07255898734240428</v>
+        <v>-0.06980911002697887</v>
       </c>
       <c r="D8">
-        <v>0.06265522214719231</v>
+        <v>-0.0231743450240857</v>
       </c>
       <c r="E8">
-        <v>0.1290915633063911</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.09210283801410171</v>
+      </c>
+      <c r="F8">
+        <v>0.03000531934756506</v>
+      </c>
+      <c r="G8">
+        <v>0.05169513804012772</v>
+      </c>
+      <c r="H8">
+        <v>0.02340290773863854</v>
+      </c>
+      <c r="I8">
+        <v>-0.008534159043720881</v>
+      </c>
+      <c r="J8">
+        <v>-0.02367984632072893</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>0.005733145274998605</v>
+        <v>0.006926682233656138</v>
       </c>
       <c r="C9">
-        <v>0.1246677393301962</v>
+        <v>-0.1165280864292156</v>
       </c>
       <c r="D9">
-        <v>0.05216085597712311</v>
+        <v>-0.01682994842910873</v>
       </c>
       <c r="E9">
-        <v>0.06140974650525718</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.06732269739898362</v>
+      </c>
+      <c r="F9">
+        <v>0.0158154746180395</v>
+      </c>
+      <c r="G9">
+        <v>0.0007149946160500395</v>
+      </c>
+      <c r="H9">
+        <v>0.09727823226727722</v>
+      </c>
+      <c r="I9">
+        <v>-0.007087881430689029</v>
+      </c>
+      <c r="J9">
+        <v>-0.06310875168340924</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>0.2584837649689308</v>
+        <v>0.2514994368894679</v>
       </c>
       <c r="C10">
-        <v>-0.08768778731740548</v>
+        <v>0.08138248105477586</v>
       </c>
       <c r="D10">
-        <v>0.03906944032808374</v>
+        <v>0.002395218379691762</v>
       </c>
       <c r="E10">
-        <v>-0.04690335286839718</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.01218741278077527</v>
+      </c>
+      <c r="F10">
+        <v>0.01198960117592001</v>
+      </c>
+      <c r="G10">
+        <v>-0.01521527906782074</v>
+      </c>
+      <c r="H10">
+        <v>0.03551220879822344</v>
+      </c>
+      <c r="I10">
+        <v>0.1680716637405129</v>
+      </c>
+      <c r="J10">
+        <v>0.08678973417916871</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>0.002355026862388519</v>
+        <v>0.01008229171355834</v>
       </c>
       <c r="C11">
-        <v>0.06233723263063636</v>
+        <v>-0.07988100076888843</v>
       </c>
       <c r="D11">
-        <v>0.02311950182313905</v>
+        <v>-0.01834131243635959</v>
       </c>
       <c r="E11">
-        <v>0.03040549522632977</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.02488898409636871</v>
+      </c>
+      <c r="F11">
+        <v>0.008941134683124279</v>
+      </c>
+      <c r="G11">
+        <v>-0.03136439218548851</v>
+      </c>
+      <c r="H11">
+        <v>0.03176069327568973</v>
+      </c>
+      <c r="I11">
+        <v>0.006199480550121927</v>
+      </c>
+      <c r="J11">
+        <v>0.03142041163157813</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>0.003745121909641107</v>
+        <v>0.01141530195202922</v>
       </c>
       <c r="C12">
-        <v>0.05927774482937204</v>
+        <v>-0.06283290287598969</v>
       </c>
       <c r="D12">
-        <v>0.01701039361445974</v>
+        <v>-0.007626403805891965</v>
       </c>
       <c r="E12">
-        <v>0.02363103568269669</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.02148447565431644</v>
+      </c>
+      <c r="F12">
+        <v>-0.02132913537910565</v>
+      </c>
+      <c r="G12">
+        <v>-0.03269981350420358</v>
+      </c>
+      <c r="H12">
+        <v>0.03364933642702949</v>
+      </c>
+      <c r="I12">
+        <v>0.01002790385818942</v>
+      </c>
+      <c r="J12">
+        <v>0.006531448411602351</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>0.004188278473055036</v>
+        <v>0.001253485777011982</v>
       </c>
       <c r="C13">
-        <v>0.08530689094275755</v>
+        <v>-0.110513113516908</v>
       </c>
       <c r="D13">
-        <v>0.07933749020858497</v>
+        <v>0.005071582321415982</v>
       </c>
       <c r="E13">
-        <v>0.1211912627197914</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.1575624252755947</v>
+      </c>
+      <c r="F13">
+        <v>-0.1023566211584689</v>
+      </c>
+      <c r="G13">
+        <v>-0.06936986419279746</v>
+      </c>
+      <c r="H13">
+        <v>0.06993999249383961</v>
+      </c>
+      <c r="I13">
+        <v>0.1074542796467334</v>
+      </c>
+      <c r="J13">
+        <v>0.03450175410565965</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>-0.005348125474289494</v>
+        <v>0.008256630130118381</v>
       </c>
       <c r="C14">
-        <v>0.06026234544452651</v>
+        <v>-0.0788248062602392</v>
       </c>
       <c r="D14">
-        <v>0.03188766033687546</v>
+        <v>-0.02546473768399703</v>
       </c>
       <c r="E14">
-        <v>0.06186417847993281</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.0919297967780229</v>
+      </c>
+      <c r="F14">
+        <v>-0.04168826078496266</v>
+      </c>
+      <c r="G14">
+        <v>-0.0975347594720152</v>
+      </c>
+      <c r="H14">
+        <v>0.1757282049518085</v>
+      </c>
+      <c r="I14">
+        <v>-0.0257542785057921</v>
+      </c>
+      <c r="J14">
+        <v>0.1749236123324068</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B15">
-        <v>-0.0009074985964055443</v>
+        <v>-0.001344667501719237</v>
       </c>
       <c r="C15">
-        <v>0.06970661818761315</v>
+        <v>-0.07108624882421181</v>
       </c>
       <c r="D15">
-        <v>0.05362236955141701</v>
+        <v>-0.008840736841262214</v>
       </c>
       <c r="E15">
-        <v>0.08813296693479071</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>0.06756509264734299</v>
+      </c>
+      <c r="F15">
+        <v>0.005255066239637387</v>
+      </c>
+      <c r="G15">
+        <v>-0.033458772497838</v>
+      </c>
+      <c r="H15">
+        <v>0.05580847230432733</v>
+      </c>
+      <c r="I15">
+        <v>-0.0128600188908019</v>
+      </c>
+      <c r="J15">
+        <v>0.04658179889999712</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B16">
-        <v>0.006907417704743302</v>
+        <v>0.01058868666073668</v>
       </c>
       <c r="C16">
-        <v>0.0577276756282377</v>
+        <v>-0.06667021604573738</v>
       </c>
       <c r="D16">
-        <v>0.02231296166223807</v>
+        <v>-0.008232246548298724</v>
       </c>
       <c r="E16">
-        <v>0.0204015475150923</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.01586308970398404</v>
+      </c>
+      <c r="F16">
+        <v>-0.002500469850594592</v>
+      </c>
+      <c r="G16">
+        <v>-0.03045586950916617</v>
+      </c>
+      <c r="H16">
+        <v>0.03063106011067266</v>
+      </c>
+      <c r="I16">
+        <v>0.007916190953390101</v>
+      </c>
+      <c r="J16">
+        <v>0.006267110142733685</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1238,25 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,10 +1270,25 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1017,129 +1302,249 @@
       <c r="E19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B20">
-        <v>-0.0001819802744883624</v>
+        <v>0.005736091344260254</v>
       </c>
       <c r="C20">
-        <v>0.06836958774215522</v>
+        <v>-0.08423322041733745</v>
       </c>
       <c r="D20">
-        <v>0.05427076540297449</v>
+        <v>0.001007515015620701</v>
       </c>
       <c r="E20">
-        <v>0.0426070838819641</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.0442294159957454</v>
+      </c>
+      <c r="F20">
+        <v>0.01355105087951777</v>
+      </c>
+      <c r="G20">
+        <v>-0.07051005314532098</v>
+      </c>
+      <c r="H20">
+        <v>0.05792520195374719</v>
+      </c>
+      <c r="I20">
+        <v>-0.00735305055736878</v>
+      </c>
+      <c r="J20">
+        <v>-0.008357398707568233</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B21">
-        <v>-0.001782379332355566</v>
+        <v>0.006340799965738748</v>
       </c>
       <c r="C21">
-        <v>0.08707090799692489</v>
+        <v>-0.0821532549532393</v>
       </c>
       <c r="D21">
-        <v>0.09084814327277758</v>
+        <v>-0.00289016203211233</v>
       </c>
       <c r="E21">
-        <v>0.06072080711940515</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.09297800293538666</v>
+      </c>
+      <c r="F21">
+        <v>-0.07314163787034843</v>
+      </c>
+      <c r="G21">
+        <v>-0.006375195324256943</v>
+      </c>
+      <c r="H21">
+        <v>0.1633145630351357</v>
+      </c>
+      <c r="I21">
+        <v>0.04113255744642245</v>
+      </c>
+      <c r="J21">
+        <v>0.03044546439387641</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B22">
-        <v>-0.01233140903271877</v>
+        <v>-0.01559937401270859</v>
       </c>
       <c r="C22">
-        <v>0.1278726192230598</v>
+        <v>-0.1401815370666551</v>
       </c>
       <c r="D22">
-        <v>0.2518848862786469</v>
+        <v>0.0336845874330518</v>
       </c>
       <c r="E22">
-        <v>0.1899841928986583</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>0.36687040485376</v>
+      </c>
+      <c r="F22">
+        <v>0.149258255808999</v>
+      </c>
+      <c r="G22">
+        <v>0.2469316647431557</v>
+      </c>
+      <c r="H22">
+        <v>-0.3985508458415055</v>
+      </c>
+      <c r="I22">
+        <v>0.05037166533497908</v>
+      </c>
+      <c r="J22">
+        <v>0.2087538223536414</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B23">
-        <v>-0.01280432872448956</v>
+        <v>-0.01203717647192613</v>
       </c>
       <c r="C23">
-        <v>0.1294843660809705</v>
+        <v>-0.1446076400364436</v>
       </c>
       <c r="D23">
-        <v>0.2503202347493643</v>
+        <v>0.03610423009772303</v>
       </c>
       <c r="E23">
-        <v>0.1883342510085541</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>0.3590719784650879</v>
+      </c>
+      <c r="F23">
+        <v>0.1425702827122188</v>
+      </c>
+      <c r="G23">
+        <v>0.2394980124715408</v>
+      </c>
+      <c r="H23">
+        <v>-0.3730743640632434</v>
+      </c>
+      <c r="I23">
+        <v>0.05325255314631407</v>
+      </c>
+      <c r="J23">
+        <v>0.1982572858794438</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B24">
-        <v>0.000259283721339889</v>
+        <v>0.01100909032130688</v>
       </c>
       <c r="C24">
-        <v>0.07432514154431903</v>
+        <v>-0.07671097144864608</v>
       </c>
       <c r="D24">
-        <v>0.01506792310591547</v>
+        <v>-0.02291639893928327</v>
       </c>
       <c r="E24">
-        <v>0.03826987657970143</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.02688266136525973</v>
+      </c>
+      <c r="F24">
+        <v>0.002588167716691021</v>
+      </c>
+      <c r="G24">
+        <v>-0.0344394046345756</v>
+      </c>
+      <c r="H24">
+        <v>0.04295419128449305</v>
+      </c>
+      <c r="I24">
+        <v>0.001769162905900685</v>
+      </c>
+      <c r="J24">
+        <v>0.0081210562213259</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B25">
-        <v>0.007691928181961753</v>
+        <v>0.01709896560042883</v>
       </c>
       <c r="C25">
-        <v>0.07079798886102745</v>
+        <v>-0.07507144863000496</v>
       </c>
       <c r="D25">
-        <v>0.01883533019088625</v>
+        <v>-0.01370279253066055</v>
       </c>
       <c r="E25">
-        <v>0.01591309283883782</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.01935582247707987</v>
+      </c>
+      <c r="F25">
+        <v>0.005224073589399999</v>
+      </c>
+      <c r="G25">
+        <v>-0.02991343976225091</v>
+      </c>
+      <c r="H25">
+        <v>0.03309375551715152</v>
+      </c>
+      <c r="I25">
+        <v>0.01705379731212221</v>
+      </c>
+      <c r="J25">
+        <v>0.03152872826202125</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B26">
-        <v>0.002216177249035767</v>
+        <v>0.01629038887208304</v>
       </c>
       <c r="C26">
-        <v>0.05212189324222418</v>
+        <v>-0.06353876143958272</v>
       </c>
       <c r="D26">
-        <v>0.02422932903021376</v>
+        <v>-0.04273128632541121</v>
       </c>
       <c r="E26">
-        <v>0.05991691477056321</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.04550363009378755</v>
+      </c>
+      <c r="F26">
+        <v>-0.006295017491766333</v>
+      </c>
+      <c r="G26">
+        <v>-0.0286938994320287</v>
+      </c>
+      <c r="H26">
+        <v>0.119493274968265</v>
+      </c>
+      <c r="I26">
+        <v>0.01523111634589642</v>
+      </c>
+      <c r="J26">
+        <v>-0.07768746011222034</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1558,313 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B28">
-        <v>0.3315595252105284</v>
+        <v>0.3159594623741026</v>
       </c>
       <c r="C28">
-        <v>-0.09472157158778123</v>
+        <v>0.1025105401265829</v>
       </c>
       <c r="D28">
-        <v>0.02463654166780798</v>
+        <v>0.01623837485917076</v>
       </c>
       <c r="E28">
-        <v>-0.05538375730000999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.02095594377810295</v>
+      </c>
+      <c r="F28">
+        <v>0.05404332347859839</v>
+      </c>
+      <c r="G28">
+        <v>0.06182484329359677</v>
+      </c>
+      <c r="H28">
+        <v>0.07598778190045563</v>
+      </c>
+      <c r="I28">
+        <v>0.1761996012802539</v>
+      </c>
+      <c r="J28">
+        <v>-0.05188125051359314</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B29">
-        <v>-0.002038268169259508</v>
+        <v>0.005531894806759363</v>
       </c>
       <c r="C29">
-        <v>0.06016931393267912</v>
+        <v>-0.08226359753027961</v>
       </c>
       <c r="D29">
-        <v>0.04765805811657461</v>
+        <v>-0.02012004566820917</v>
       </c>
       <c r="E29">
-        <v>0.09003854129519691</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.1320439055627417</v>
+      </c>
+      <c r="F29">
+        <v>-0.05918017903478356</v>
+      </c>
+      <c r="G29">
+        <v>-0.1460947713888485</v>
+      </c>
+      <c r="H29">
+        <v>0.2397203814948972</v>
+      </c>
+      <c r="I29">
+        <v>-0.05169145021100736</v>
+      </c>
+      <c r="J29">
+        <v>0.2580830994858521</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B30">
-        <v>0.01484206055633595</v>
+        <v>0.01802613262083116</v>
       </c>
       <c r="C30">
-        <v>0.1705208408354615</v>
+        <v>-0.1550808968954029</v>
       </c>
       <c r="D30">
-        <v>0.05517470148831401</v>
+        <v>-0.02899906601747868</v>
       </c>
       <c r="E30">
-        <v>0.08333593058191199</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.07822706318502234</v>
+      </c>
+      <c r="F30">
+        <v>0.02597892031778114</v>
+      </c>
+      <c r="G30">
+        <v>0.01740774070268834</v>
+      </c>
+      <c r="H30">
+        <v>0.02768423408933648</v>
+      </c>
+      <c r="I30">
+        <v>-0.01869314495340145</v>
+      </c>
+      <c r="J30">
+        <v>-0.08203770438570065</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B31">
-        <v>-0.01166470791682594</v>
+        <v>0.004045725708117955</v>
       </c>
       <c r="C31">
-        <v>0.09979492987226371</v>
+        <v>-0.0991227839017515</v>
       </c>
       <c r="D31">
-        <v>-0.02975471633156342</v>
+        <v>-0.03053417646241504</v>
       </c>
       <c r="E31">
-        <v>0.003596669714320239</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.009224882525647805</v>
+      </c>
+      <c r="F31">
+        <v>0.001878671600023032</v>
+      </c>
+      <c r="G31">
+        <v>0.02879694876122449</v>
+      </c>
+      <c r="H31">
+        <v>0.05651647605004105</v>
+      </c>
+      <c r="I31">
+        <v>0.0375302026901075</v>
+      </c>
+      <c r="J31">
+        <v>0.04832992667644416</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B32">
-        <v>0.02318840499691944</v>
+        <v>0.02199662605719989</v>
       </c>
       <c r="C32">
-        <v>0.07238680345023575</v>
+        <v>-0.0680711483984819</v>
       </c>
       <c r="D32">
-        <v>0.1197742465218261</v>
+        <v>0.01344309366200139</v>
       </c>
       <c r="E32">
-        <v>0.08461493486707783</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.1356164711600492</v>
+      </c>
+      <c r="F32">
+        <v>-0.02654703006335953</v>
+      </c>
+      <c r="G32">
+        <v>-0.01008929253478769</v>
+      </c>
+      <c r="H32">
+        <v>0.1060119675086604</v>
+      </c>
+      <c r="I32">
+        <v>0.2257827700308029</v>
+      </c>
+      <c r="J32">
+        <v>-0.0368262837106145</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B33">
-        <v>-0.001388400005759789</v>
+        <v>0.008472311196538537</v>
       </c>
       <c r="C33">
-        <v>0.08946380323470562</v>
+        <v>-0.1097873480411147</v>
       </c>
       <c r="D33">
-        <v>0.03021809364807337</v>
+        <v>-0.01200807089767549</v>
       </c>
       <c r="E33">
-        <v>0.05799384173891987</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.05808265830560187</v>
+      </c>
+      <c r="F33">
+        <v>0.001292163297158943</v>
+      </c>
+      <c r="G33">
+        <v>-0.03795012569777325</v>
+      </c>
+      <c r="H33">
+        <v>0.05247163034992883</v>
+      </c>
+      <c r="I33">
+        <v>0.02556891627320794</v>
+      </c>
+      <c r="J33">
+        <v>0.009621400611264959</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B34">
-        <v>-0.0009873971176844419</v>
+        <v>0.01142748330693666</v>
       </c>
       <c r="C34">
-        <v>0.05605747693724022</v>
+        <v>-0.05574403805463595</v>
       </c>
       <c r="D34">
-        <v>0.009535897365206472</v>
+        <v>-0.01192553138537345</v>
       </c>
       <c r="E34">
-        <v>0.01979716997012599</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.01180426009093544</v>
+      </c>
+      <c r="F34">
+        <v>-0.01014475473568758</v>
+      </c>
+      <c r="G34">
+        <v>-0.02760821072923923</v>
+      </c>
+      <c r="H34">
+        <v>0.005716340339401423</v>
+      </c>
+      <c r="I34">
+        <v>0.02187178623215864</v>
+      </c>
+      <c r="J34">
+        <v>0.01164867912913572</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B35">
-        <v>0.001184586007722786</v>
+        <v>0.006041894525387876</v>
       </c>
       <c r="C35">
-        <v>0.009098344080490896</v>
+        <v>-0.03626162903869653</v>
       </c>
       <c r="D35">
-        <v>0.01042939524481123</v>
+        <v>-0.004910955032888208</v>
       </c>
       <c r="E35">
-        <v>0.00808936682668881</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>0.04461571575717041</v>
+      </c>
+      <c r="F35">
+        <v>-0.01416032031887374</v>
+      </c>
+      <c r="G35">
+        <v>-0.0601374632815198</v>
+      </c>
+      <c r="H35">
+        <v>0.1195764552366022</v>
+      </c>
+      <c r="I35">
+        <v>0.003616455048343459</v>
+      </c>
+      <c r="J35">
+        <v>0.1843899853075932</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B36">
-        <v>0.002651885896649331</v>
+        <v>0.009079425663042894</v>
       </c>
       <c r="C36">
-        <v>0.04228673839170947</v>
+        <v>-0.04906836315852748</v>
       </c>
       <c r="D36">
-        <v>0.02163098664155243</v>
+        <v>-0.02972845888839907</v>
       </c>
       <c r="E36">
-        <v>0.0681415350037451</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.05205817042775483</v>
+      </c>
+      <c r="F36">
+        <v>-0.002468844570543609</v>
+      </c>
+      <c r="G36">
+        <v>-0.02359787035338232</v>
+      </c>
+      <c r="H36">
+        <v>0.0651397844886383</v>
+      </c>
+      <c r="I36">
+        <v>0.005780962776195</v>
+      </c>
+      <c r="J36">
+        <v>-0.02396638375709241</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1878,153 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B38">
-        <v>0.01061614488061817</v>
+        <v>0.007563093375314695</v>
       </c>
       <c r="C38">
-        <v>0.04619120082419076</v>
+        <v>-0.06337930959581775</v>
       </c>
       <c r="D38">
-        <v>0.0285297566329831</v>
+        <v>-0.01809433219044635</v>
       </c>
       <c r="E38">
-        <v>0.05602503722408776</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.05460069561266642</v>
+      </c>
+      <c r="F38">
+        <v>0.04841576667722044</v>
+      </c>
+      <c r="G38">
+        <v>-0.01901612616722159</v>
+      </c>
+      <c r="H38">
+        <v>0.05376362964635849</v>
+      </c>
+      <c r="I38">
+        <v>0.03337960993072479</v>
+      </c>
+      <c r="J38">
+        <v>0.03791620914320733</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B39">
-        <v>-0.001266508034918906</v>
+        <v>0.008204726034811843</v>
       </c>
       <c r="C39">
-        <v>0.1306969180001301</v>
+        <v>-0.1303617854062343</v>
       </c>
       <c r="D39">
-        <v>0.04116001696236289</v>
+        <v>-0.03176221115416982</v>
       </c>
       <c r="E39">
-        <v>0.05817153457253978</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.03951478426923265</v>
+      </c>
+      <c r="F39">
+        <v>-0.01854429643238072</v>
+      </c>
+      <c r="G39">
+        <v>-0.04991189241960153</v>
+      </c>
+      <c r="H39">
+        <v>0.04148459257241901</v>
+      </c>
+      <c r="I39">
+        <v>-0.03522863679903884</v>
+      </c>
+      <c r="J39">
+        <v>-0.008458780462560543</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B40">
-        <v>-0.003313732142606785</v>
+        <v>0.01002697882830917</v>
       </c>
       <c r="C40">
-        <v>0.02425733157597105</v>
+        <v>-0.05656375924009365</v>
       </c>
       <c r="D40">
-        <v>0.05154602008945501</v>
+        <v>-0.005583182297138362</v>
       </c>
       <c r="E40">
-        <v>0.122597007479896</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.1269209909790773</v>
+      </c>
+      <c r="F40">
+        <v>-0.02936377310878516</v>
+      </c>
+      <c r="G40">
+        <v>-0.09723281923190626</v>
+      </c>
+      <c r="H40">
+        <v>-0.01334679269156008</v>
+      </c>
+      <c r="I40">
+        <v>0.0231298422246921</v>
+      </c>
+      <c r="J40">
+        <v>0.1562033515157808</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B41">
-        <v>0.009225852958384389</v>
+        <v>0.01879027064491071</v>
       </c>
       <c r="C41">
-        <v>0.02237852960345467</v>
+        <v>-0.04920990983915096</v>
       </c>
       <c r="D41">
-        <v>-0.00208552891867399</v>
+        <v>-0.007295573387269779</v>
       </c>
       <c r="E41">
-        <v>-0.004814367139259196</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>-0.001482323849382308</v>
+      </c>
+      <c r="F41">
+        <v>0.005588887230854258</v>
+      </c>
+      <c r="G41">
+        <v>-0.01160868799713098</v>
+      </c>
+      <c r="H41">
+        <v>0.03443326889966901</v>
+      </c>
+      <c r="I41">
+        <v>0.04291039825331685</v>
+      </c>
+      <c r="J41">
+        <v>0.06025583615289064</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +2038,89 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B43">
-        <v>-0.003517497357102262</v>
+        <v>0.0101643803761145</v>
       </c>
       <c r="C43">
-        <v>0.01668809924165015</v>
+        <v>-0.04317795865747533</v>
       </c>
       <c r="D43">
-        <v>0.01453858730728041</v>
+        <v>-0.01594721903399716</v>
       </c>
       <c r="E43">
-        <v>0.02835106444065576</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.02295469428086208</v>
+      </c>
+      <c r="F43">
+        <v>0.01311184005559528</v>
+      </c>
+      <c r="G43">
+        <v>-0.02913714895598008</v>
+      </c>
+      <c r="H43">
+        <v>0.04643305254007088</v>
+      </c>
+      <c r="I43">
+        <v>0.01534188616081282</v>
+      </c>
+      <c r="J43">
+        <v>0.04347164868983094</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B44">
-        <v>0.01295256753529152</v>
+        <v>0.005361657759906993</v>
       </c>
       <c r="C44">
-        <v>0.07532656343329161</v>
+        <v>-0.08344390638822617</v>
       </c>
       <c r="D44">
-        <v>0.06775990780379962</v>
+        <v>-0.03252390012155928</v>
       </c>
       <c r="E44">
-        <v>0.09912276978140276</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.1035565679753712</v>
+      </c>
+      <c r="F44">
+        <v>0.007550572219467189</v>
+      </c>
+      <c r="G44">
+        <v>-0.02431360602937689</v>
+      </c>
+      <c r="H44">
+        <v>0.01892144026470226</v>
+      </c>
+      <c r="I44">
+        <v>-0.04235766322944334</v>
+      </c>
+      <c r="J44">
+        <v>-0.04556727672798449</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,112 +2134,217 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B46">
-        <v>-0.01634635610365167</v>
+        <v>-0.004715214950458829</v>
       </c>
       <c r="C46">
-        <v>0.06344493863245221</v>
+        <v>-0.06852443281886449</v>
       </c>
       <c r="D46">
-        <v>0.03425020737379492</v>
+        <v>-0.02198739399087153</v>
       </c>
       <c r="E46">
-        <v>0.08431511951377565</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.06208188680118724</v>
+      </c>
+      <c r="F46">
+        <v>-0.008690106363458074</v>
+      </c>
+      <c r="G46">
+        <v>-0.07164906939876674</v>
+      </c>
+      <c r="H46">
+        <v>0.1178129208575267</v>
+      </c>
+      <c r="I46">
+        <v>-0.006446881129502966</v>
+      </c>
+      <c r="J46">
+        <v>0.1095008139206763</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B47">
-        <v>0.009140824022294545</v>
+        <v>0.01985034814328961</v>
       </c>
       <c r="C47">
-        <v>0.1144548331672432</v>
+        <v>-0.09999724930435872</v>
       </c>
       <c r="D47">
-        <v>-0.0221067857254338</v>
+        <v>-0.0273283421436542</v>
       </c>
       <c r="E47">
-        <v>-0.0323918211012122</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>-0.01228357099608334</v>
+      </c>
+      <c r="F47">
+        <v>0.00554172189006266</v>
+      </c>
+      <c r="G47">
+        <v>0.006472360896255845</v>
+      </c>
+      <c r="H47">
+        <v>0.08610232952763271</v>
+      </c>
+      <c r="I47">
+        <v>0.03850421100659872</v>
+      </c>
+      <c r="J47">
+        <v>0.02263442415846217</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B48">
-        <v>0.009422423652404852</v>
+        <v>0.01537916404428393</v>
       </c>
       <c r="C48">
-        <v>0.0454050969359339</v>
+        <v>-0.05534322901719747</v>
       </c>
       <c r="D48">
-        <v>0.008116619745997316</v>
+        <v>-0.03820466783404221</v>
       </c>
       <c r="E48">
-        <v>0.07319273591672068</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.04991874241517339</v>
+      </c>
+      <c r="F48">
+        <v>0.000490806847622935</v>
+      </c>
+      <c r="G48">
+        <v>-0.02853598178240478</v>
+      </c>
+      <c r="H48">
+        <v>0.1099924765184248</v>
+      </c>
+      <c r="I48">
+        <v>0.003103628560511373</v>
+      </c>
+      <c r="J48">
+        <v>-0.07309574437102098</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.005217754664400356</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>-0.008122037556002984</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>-0.009213135371335335</v>
       </c>
       <c r="E49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>-0.003854555061498672</v>
+      </c>
+      <c r="F49">
+        <v>-0.008224733224452959</v>
+      </c>
+      <c r="G49">
+        <v>-0.01566541875219867</v>
+      </c>
+      <c r="H49">
+        <v>-0.01329780909767575</v>
+      </c>
+      <c r="I49">
+        <v>-0.003187572808603895</v>
+      </c>
+      <c r="J49">
+        <v>-0.005607004664501825</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B50">
-        <v>0.005106777743510852</v>
+        <v>0.01147694371804771</v>
       </c>
       <c r="C50">
-        <v>0.09218670488656985</v>
+        <v>-0.09026377050250001</v>
       </c>
       <c r="D50">
-        <v>-0.008785501677653663</v>
+        <v>-0.01208145698355825</v>
       </c>
       <c r="E50">
-        <v>0.001667314654524555</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.001142904999681707</v>
+      </c>
+      <c r="F50">
+        <v>0.0182269230383178</v>
+      </c>
+      <c r="G50">
+        <v>0.02339911835246438</v>
+      </c>
+      <c r="H50">
+        <v>0.06569923266058082</v>
+      </c>
+      <c r="I50">
+        <v>0.06151655780470323</v>
+      </c>
+      <c r="J50">
+        <v>0.03667552367989863</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B51">
-        <v>0.003730870220208927</v>
+        <v>-0.005523393802772129</v>
       </c>
       <c r="C51">
-        <v>0.05351525311943936</v>
+        <v>-0.03857746579754021</v>
       </c>
       <c r="D51">
-        <v>0.0705331338335216</v>
+        <v>-0.007846404128980475</v>
       </c>
       <c r="E51">
-        <v>0.06978563178826798</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>0.05671624424299261</v>
+      </c>
+      <c r="F51">
+        <v>-0.004343546740722839</v>
+      </c>
+      <c r="G51">
+        <v>-0.01344067380885009</v>
+      </c>
+      <c r="H51">
+        <v>0.08668614007267235</v>
+      </c>
+      <c r="I51">
+        <v>-0.03232311049089349</v>
+      </c>
+      <c r="J51">
+        <v>-0.1224575425623293</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,78 +2358,153 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B53">
-        <v>0.0414336476959563</v>
+        <v>0.05066256166512069</v>
       </c>
       <c r="C53">
-        <v>0.1630498506143874</v>
+        <v>-0.1493931791354444</v>
       </c>
       <c r="D53">
-        <v>-0.06316026463625841</v>
+        <v>-0.04529543441167116</v>
       </c>
       <c r="E53">
-        <v>-0.05279201175973041</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>-0.08997224131736561</v>
+      </c>
+      <c r="F53">
+        <v>0.008038384391191929</v>
+      </c>
+      <c r="G53">
+        <v>0.04986496578951784</v>
+      </c>
+      <c r="H53">
+        <v>0.009791672173469504</v>
+      </c>
+      <c r="I53">
+        <v>0.04856466138972603</v>
+      </c>
+      <c r="J53">
+        <v>0.01490788566020987</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B54">
-        <v>0.006235399406070257</v>
+        <v>0.01364261577024838</v>
       </c>
       <c r="C54">
-        <v>0.05611298178916922</v>
+        <v>-0.07109670712392695</v>
       </c>
       <c r="D54">
-        <v>0.0458571638231085</v>
+        <v>0.007935259173905288</v>
       </c>
       <c r="E54">
-        <v>0.02139041766242229</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.03026850196895842</v>
+      </c>
+      <c r="F54">
+        <v>0.00445912897413948</v>
+      </c>
+      <c r="G54">
+        <v>-0.0196883104168879</v>
+      </c>
+      <c r="H54">
+        <v>0.07972298564086536</v>
+      </c>
+      <c r="I54">
+        <v>-0.01396832515325823</v>
+      </c>
+      <c r="J54">
+        <v>0.04273712768799828</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B55">
-        <v>0.02488991373654989</v>
+        <v>0.02790758842160254</v>
       </c>
       <c r="C55">
-        <v>0.1246663943445788</v>
+        <v>-0.1082770415376443</v>
       </c>
       <c r="D55">
-        <v>-0.05783215179744319</v>
+        <v>-0.04779769836288385</v>
       </c>
       <c r="E55">
-        <v>-0.01558282770639102</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>-0.06179311585338661</v>
+      </c>
+      <c r="F55">
+        <v>-0.00804660288037677</v>
+      </c>
+      <c r="G55">
+        <v>0.02587806702428886</v>
+      </c>
+      <c r="H55">
+        <v>0.01928153951352696</v>
+      </c>
+      <c r="I55">
+        <v>0.006956410901231946</v>
+      </c>
+      <c r="J55">
+        <v>0.001694137504318289</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B56">
-        <v>0.04544926225583236</v>
+        <v>0.0437325985118524</v>
       </c>
       <c r="C56">
-        <v>0.1982436503956859</v>
+        <v>-0.1789569509674536</v>
       </c>
       <c r="D56">
-        <v>-0.08795211442222726</v>
+        <v>-0.0693448480608481</v>
       </c>
       <c r="E56">
-        <v>-0.08215874936979328</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>-0.1263766192818654</v>
+      </c>
+      <c r="F56">
+        <v>0.003781215242781826</v>
+      </c>
+      <c r="G56">
+        <v>0.1049967295669173</v>
+      </c>
+      <c r="H56">
+        <v>0.00726019460793938</v>
+      </c>
+      <c r="I56">
+        <v>0.0419059622373486</v>
+      </c>
+      <c r="J56">
+        <v>-0.0307800941783611</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,214 +2518,409 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B58">
-        <v>0.01332346544990376</v>
+        <v>0.009467736746038801</v>
       </c>
       <c r="C58">
-        <v>0.1780944707261406</v>
+        <v>-0.1687329897248614</v>
       </c>
       <c r="D58">
-        <v>0.2490929712149983</v>
+        <v>0.02103541094015327</v>
       </c>
       <c r="E58">
-        <v>0.1636517619817449</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.2816078357015412</v>
+      </c>
+      <c r="F58">
+        <v>0.08660498908770603</v>
+      </c>
+      <c r="G58">
+        <v>0.1805899152231731</v>
+      </c>
+      <c r="H58">
+        <v>-0.01614328256557531</v>
+      </c>
+      <c r="I58">
+        <v>-0.07575938007499085</v>
+      </c>
+      <c r="J58">
+        <v>-0.3131591212691193</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B59">
-        <v>0.2598241886592951</v>
+        <v>0.2763132506446061</v>
       </c>
       <c r="C59">
-        <v>-0.01421371789099919</v>
+        <v>0.0322527231212466</v>
       </c>
       <c r="D59">
-        <v>0.06277137287043837</v>
+        <v>0.0109343069192223</v>
       </c>
       <c r="E59">
-        <v>0.01392232376619241</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.05069263430741454</v>
+      </c>
+      <c r="F59">
+        <v>-0.01446400340612881</v>
+      </c>
+      <c r="G59">
+        <v>0.01096532087753234</v>
+      </c>
+      <c r="H59">
+        <v>-0.02227519986337042</v>
+      </c>
+      <c r="I59">
+        <v>0.09940339948310854</v>
+      </c>
+      <c r="J59">
+        <v>-0.01183026373366558</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B60">
-        <v>0.1196417592911972</v>
+        <v>0.1466484021593162</v>
       </c>
       <c r="C60">
-        <v>0.1627363232441001</v>
+        <v>-0.1680941967810962</v>
       </c>
       <c r="D60">
-        <v>-0.06527855909092398</v>
+        <v>-0.03464002982398567</v>
       </c>
       <c r="E60">
-        <v>-0.02456695130699789</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.06323214811911029</v>
+      </c>
+      <c r="F60">
+        <v>-0.1244405292304983</v>
+      </c>
+      <c r="G60">
+        <v>-0.239893839040227</v>
+      </c>
+      <c r="H60">
+        <v>-0.2806948555206015</v>
+      </c>
+      <c r="I60">
+        <v>-0.06423450322642936</v>
+      </c>
+      <c r="J60">
+        <v>-0.005674247948535503</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B61">
-        <v>0.004094458284533347</v>
+        <v>0.01406047986762576</v>
       </c>
       <c r="C61">
-        <v>0.09500494138576999</v>
+        <v>-0.1064573343785109</v>
       </c>
       <c r="D61">
-        <v>0.004614656347928481</v>
+        <v>-0.03092624005094978</v>
       </c>
       <c r="E61">
-        <v>0.03261888493919333</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.01687778509621889</v>
+      </c>
+      <c r="F61">
+        <v>-0.007977727113683091</v>
+      </c>
+      <c r="G61">
+        <v>-0.05068586008519509</v>
+      </c>
+      <c r="H61">
+        <v>0.04708848884876243</v>
+      </c>
+      <c r="I61">
+        <v>-0.005496594878593241</v>
+      </c>
+      <c r="J61">
+        <v>0.03418961616550651</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>0.000561221405821219</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>-0.00496360446829034</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>-0.00510927985330934</v>
       </c>
       <c r="E62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+        <v>0.01155631042876689</v>
+      </c>
+      <c r="F62">
+        <v>-0.006662287392358295</v>
+      </c>
+      <c r="G62">
+        <v>-0.01735031145006578</v>
+      </c>
+      <c r="H62">
+        <v>0.01270974342083506</v>
+      </c>
+      <c r="I62">
+        <v>-0.005277974146043917</v>
+      </c>
+      <c r="J62">
+        <v>0.004256857969925519</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B63">
-        <v>-0.006884004651372224</v>
+        <v>0.01608124792000678</v>
       </c>
       <c r="C63">
-        <v>0.05952556242790119</v>
+        <v>-0.0741479124666317</v>
       </c>
       <c r="D63">
-        <v>0.02148590883403944</v>
+        <v>-0.03223316580885017</v>
       </c>
       <c r="E63">
-        <v>0.03469899838795894</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.03226421321565315</v>
+      </c>
+      <c r="F63">
+        <v>-0.007770863357643419</v>
+      </c>
+      <c r="G63">
+        <v>-0.03930773563891212</v>
+      </c>
+      <c r="H63">
+        <v>0.06786980045999549</v>
+      </c>
+      <c r="I63">
+        <v>0.02252583423554626</v>
+      </c>
+      <c r="J63">
+        <v>0.01527353051962095</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B64">
-        <v>0.005252380941074365</v>
+        <v>0.01279668603663383</v>
       </c>
       <c r="C64">
-        <v>0.1247715208807393</v>
+        <v>-0.1053722017991175</v>
       </c>
       <c r="D64">
-        <v>-0.04295858478466622</v>
+        <v>-0.02167232861863695</v>
       </c>
       <c r="E64">
-        <v>0.01825617659088746</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.003273483018571897</v>
+      </c>
+      <c r="F64">
+        <v>0.02748799713329406</v>
+      </c>
+      <c r="G64">
+        <v>-0.01774696912351638</v>
+      </c>
+      <c r="H64">
+        <v>0.01196029742959868</v>
+      </c>
+      <c r="I64">
+        <v>-0.004168942052476318</v>
+      </c>
+      <c r="J64">
+        <v>0.0362724029887416</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B65">
-        <v>0.01792254185351301</v>
+        <v>0.02610295380857352</v>
       </c>
       <c r="C65">
-        <v>0.07649339584517188</v>
+        <v>-0.0908663857590538</v>
       </c>
       <c r="D65">
-        <v>0.03870335845450281</v>
+        <v>0.001363421950948477</v>
       </c>
       <c r="E65">
-        <v>0.06164625415700711</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.0745801379736392</v>
+      </c>
+      <c r="F65">
+        <v>0.004502154851804439</v>
+      </c>
+      <c r="G65">
+        <v>-0.09069913536953733</v>
+      </c>
+      <c r="H65">
+        <v>-0.01586560546088199</v>
+      </c>
+      <c r="I65">
+        <v>-0.05252257723818686</v>
+      </c>
+      <c r="J65">
+        <v>-0.004868186036006377</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B66">
-        <v>-0.002629384594738995</v>
+        <v>0.005797257903792499</v>
       </c>
       <c r="C66">
-        <v>0.1505541939602912</v>
+        <v>-0.158613924557994</v>
       </c>
       <c r="D66">
-        <v>0.07276396475440894</v>
+        <v>-0.01375228594675204</v>
       </c>
       <c r="E66">
-        <v>0.07943480059736754</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.06421898602626901</v>
+      </c>
+      <c r="F66">
+        <v>-0.005199707221530707</v>
+      </c>
+      <c r="G66">
+        <v>-0.02915107628230206</v>
+      </c>
+      <c r="H66">
+        <v>0.03982349528662161</v>
+      </c>
+      <c r="I66">
+        <v>-0.02958044751897822</v>
+      </c>
+      <c r="J66">
+        <v>-0.006877512959757662</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B67">
-        <v>0.01704633351647136</v>
+        <v>0.01744769841853836</v>
       </c>
       <c r="C67">
-        <v>0.04344544404087339</v>
+        <v>-0.05862132713321225</v>
       </c>
       <c r="D67">
-        <v>-0.02075172455665919</v>
+        <v>-0.03003514499265162</v>
       </c>
       <c r="E67">
-        <v>0.02966721210325977</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.01514154484736851</v>
+      </c>
+      <c r="F67">
+        <v>0.03430795055969108</v>
+      </c>
+      <c r="G67">
+        <v>-0.04439647840356657</v>
+      </c>
+      <c r="H67">
+        <v>0.03461793244968984</v>
+      </c>
+      <c r="I67">
+        <v>0.02722831089594311</v>
+      </c>
+      <c r="J67">
+        <v>0.05655197156754283</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B68">
-        <v>0.2637199757769945</v>
+        <v>0.2882632925892643</v>
       </c>
       <c r="C68">
-        <v>-0.0333792229085992</v>
+        <v>0.04026441694314628</v>
       </c>
       <c r="D68">
-        <v>0.05801884474228217</v>
+        <v>0.03415157748110506</v>
       </c>
       <c r="E68">
-        <v>0.01583373858329246</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.05906506487463282</v>
+      </c>
+      <c r="F68">
+        <v>0.01714302802799925</v>
+      </c>
+      <c r="G68">
+        <v>0.04415364034858132</v>
+      </c>
+      <c r="H68">
+        <v>-0.02065702917547122</v>
+      </c>
+      <c r="I68">
+        <v>0.08420574658793366</v>
+      </c>
+      <c r="J68">
+        <v>0.007763132317033585</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B69">
-        <v>0.01296289032598058</v>
+        <v>0.009009123479402883</v>
       </c>
       <c r="C69">
-        <v>0.1067250925330137</v>
+        <v>-0.0803771198142184</v>
       </c>
       <c r="D69">
-        <v>-0.04420250373925986</v>
+        <v>-0.02297874231981601</v>
       </c>
       <c r="E69">
-        <v>0.01452578774466124</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>-0.01126591923759282</v>
+      </c>
+      <c r="F69">
+        <v>0.009188017218838492</v>
+      </c>
+      <c r="G69">
+        <v>-0.0008595603357922985</v>
+      </c>
+      <c r="H69">
+        <v>0.06247864162086839</v>
+      </c>
+      <c r="I69">
+        <v>0.03193627539212365</v>
+      </c>
+      <c r="J69">
+        <v>0.007603315239227615</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,435 +2934,825 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B71">
-        <v>0.2736846095253735</v>
+        <v>0.2744130582700702</v>
       </c>
       <c r="C71">
-        <v>-0.04583407092698817</v>
+        <v>0.06240865187169341</v>
       </c>
       <c r="D71">
-        <v>0.05492822495202507</v>
+        <v>0.01842773569239173</v>
       </c>
       <c r="E71">
-        <v>-0.02088856328357513</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.04166496974625023</v>
+      </c>
+      <c r="F71">
+        <v>0.03719188738009592</v>
+      </c>
+      <c r="G71">
+        <v>-0.000183442117156281</v>
+      </c>
+      <c r="H71">
+        <v>0.05391658105962011</v>
+      </c>
+      <c r="I71">
+        <v>0.1084603394539853</v>
+      </c>
+      <c r="J71">
+        <v>-0.08882758249644893</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B72">
-        <v>0.0551750425209504</v>
+        <v>0.05788232537871239</v>
       </c>
       <c r="C72">
-        <v>0.1869275801079171</v>
+        <v>-0.1608940315949256</v>
       </c>
       <c r="D72">
-        <v>-0.03304385723101853</v>
+        <v>-0.02003047151125206</v>
       </c>
       <c r="E72">
-        <v>0.06051835043280188</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.01980294526636204</v>
+      </c>
+      <c r="F72">
+        <v>-0.01820679075359482</v>
+      </c>
+      <c r="G72">
+        <v>-0.02220872589423103</v>
+      </c>
+      <c r="H72">
+        <v>-0.04138914989589857</v>
+      </c>
+      <c r="I72">
+        <v>-0.08505077723264386</v>
+      </c>
+      <c r="J72">
+        <v>0.05024535494420328</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B73">
-        <v>0.09136309342578207</v>
+        <v>0.1444110760680657</v>
       </c>
       <c r="C73">
-        <v>0.1642929798118646</v>
+        <v>-0.2081653829903467</v>
       </c>
       <c r="D73">
-        <v>-0.09495976083747247</v>
+        <v>-0.05242042997715722</v>
       </c>
       <c r="E73">
-        <v>-0.02648378886641777</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.1082475816746404</v>
+      </c>
+      <c r="F73">
+        <v>-0.1480924506805249</v>
+      </c>
+      <c r="G73">
+        <v>-0.4025999081038092</v>
+      </c>
+      <c r="H73">
+        <v>-0.3075394510460976</v>
+      </c>
+      <c r="I73">
+        <v>0.01281962439545004</v>
+      </c>
+      <c r="J73">
+        <v>-0.1065936644653815</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B74">
-        <v>0.02951648951064721</v>
+        <v>0.03649426042574264</v>
       </c>
       <c r="C74">
-        <v>0.1204377443824962</v>
+        <v>-0.1172655199275442</v>
       </c>
       <c r="D74">
-        <v>-0.09315368417638806</v>
+        <v>-0.0441717553943689</v>
       </c>
       <c r="E74">
-        <v>-0.04669316808025176</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>-0.07874228366665741</v>
+      </c>
+      <c r="F74">
+        <v>0.00601835149467147</v>
+      </c>
+      <c r="G74">
+        <v>0.03170009420359837</v>
+      </c>
+      <c r="H74">
+        <v>0.02008496065584496</v>
+      </c>
+      <c r="I74">
+        <v>0.01298657502631625</v>
+      </c>
+      <c r="J74">
+        <v>0.003462133738766375</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B75">
-        <v>0.09642636940781926</v>
+        <v>0.06964508240417663</v>
       </c>
       <c r="C75">
-        <v>0.2181850731129012</v>
+        <v>-0.1965839996152974</v>
       </c>
       <c r="D75">
-        <v>-0.2064472982134219</v>
+        <v>-0.08869802955159939</v>
       </c>
       <c r="E75">
-        <v>-0.1391817885684256</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>-0.2280595088744481</v>
+      </c>
+      <c r="F75">
+        <v>0.09547322743259172</v>
+      </c>
+      <c r="G75">
+        <v>0.1409649419429385</v>
+      </c>
+      <c r="H75">
+        <v>-0.000933471303589523</v>
+      </c>
+      <c r="I75">
+        <v>0.0784505116601605</v>
+      </c>
+      <c r="J75">
+        <v>0.04538999547872177</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B76">
-        <v>0.04215669587474342</v>
+        <v>0.03977695068668131</v>
       </c>
       <c r="C76">
-        <v>0.1508192579530594</v>
+        <v>-0.1442325288759496</v>
       </c>
       <c r="D76">
-        <v>-0.1013650793872627</v>
+        <v>-0.07342270123965877</v>
       </c>
       <c r="E76">
-        <v>-0.04565645539472071</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>-0.1080394706896855</v>
+      </c>
+      <c r="F76">
+        <v>0.00178131653095928</v>
+      </c>
+      <c r="G76">
+        <v>0.02931969971077916</v>
+      </c>
+      <c r="H76">
+        <v>0.02081583576849813</v>
+      </c>
+      <c r="I76">
+        <v>0.01925956219389283</v>
+      </c>
+      <c r="J76">
+        <v>0.01888375318425438</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B77">
-        <v>0.03091870077898242</v>
+        <v>0.02360032600325066</v>
       </c>
       <c r="C77">
-        <v>0.1589389736882026</v>
+        <v>-0.2405955633725514</v>
       </c>
       <c r="D77">
-        <v>0.6087503297840957</v>
+        <v>0.9467562558657459</v>
       </c>
       <c r="E77">
-        <v>-0.7011942915405838</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.1607438985319584</v>
+      </c>
+      <c r="F77">
+        <v>0.02441790535869396</v>
+      </c>
+      <c r="G77">
+        <v>-0.003150455974918914</v>
+      </c>
+      <c r="H77">
+        <v>0.05250563462073617</v>
+      </c>
+      <c r="I77">
+        <v>-0.01935636904210702</v>
+      </c>
+      <c r="J77">
+        <v>0.008186860001003765</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B78">
-        <v>0.02527153401358885</v>
+        <v>0.02549727938038472</v>
       </c>
       <c r="C78">
-        <v>0.1509287461713079</v>
+        <v>-0.12481377727377</v>
       </c>
       <c r="D78">
-        <v>0.06828924446953069</v>
+        <v>-0.05923590085500297</v>
       </c>
       <c r="E78">
-        <v>0.1034100477740015</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.04761481070123825</v>
+      </c>
+      <c r="F78">
+        <v>-0.006596131988018012</v>
+      </c>
+      <c r="G78">
+        <v>0.08625829893540014</v>
+      </c>
+      <c r="H78">
+        <v>0.1279126585423895</v>
+      </c>
+      <c r="I78">
+        <v>-0.1691855463664434</v>
+      </c>
+      <c r="J78">
+        <v>-0.5027241689467515</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B79">
-        <v>0.05810239808840088</v>
+        <v>0.05782802271780953</v>
       </c>
       <c r="C79">
-        <v>0.2528338708202922</v>
+        <v>-0.1903304265875675</v>
       </c>
       <c r="D79">
-        <v>-0.1843023542240826</v>
+        <v>-0.07143513109733046</v>
       </c>
       <c r="E79">
-        <v>-0.1128630122648292</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>-0.1827804158947702</v>
+      </c>
+      <c r="F79">
+        <v>0.02739937324047634</v>
+      </c>
+      <c r="G79">
+        <v>0.1927268872415092</v>
+      </c>
+      <c r="H79">
+        <v>0.05690265725265367</v>
+      </c>
+      <c r="I79">
+        <v>0.0812706557493912</v>
+      </c>
+      <c r="J79">
+        <v>-0.01056673051491978</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B80">
-        <v>-0.01668729864181126</v>
+        <v>0.006047232270778721</v>
       </c>
       <c r="C80">
-        <v>0.07008531230785145</v>
+        <v>-0.06362008314530196</v>
       </c>
       <c r="D80">
-        <v>-0.02496104850772951</v>
+        <v>-0.04013525587246319</v>
       </c>
       <c r="E80">
-        <v>0.01968068161027842</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.0322662595253661</v>
+      </c>
+      <c r="F80">
+        <v>-0.07369664299281825</v>
+      </c>
+      <c r="G80">
+        <v>-0.03810883917932675</v>
+      </c>
+      <c r="H80">
+        <v>-0.04536993672016918</v>
+      </c>
+      <c r="I80">
+        <v>0.06130679472301777</v>
+      </c>
+      <c r="J80">
+        <v>0.07029898447048405</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B81">
-        <v>0.03576947163249385</v>
+        <v>0.02298129294065945</v>
       </c>
       <c r="C81">
-        <v>0.1348410589689824</v>
+        <v>-0.1211503224536902</v>
       </c>
       <c r="D81">
-        <v>-0.1330472718132593</v>
+        <v>-0.04822099829340788</v>
       </c>
       <c r="E81">
-        <v>-0.1006079335499554</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>-0.1051150800870332</v>
+      </c>
+      <c r="F81">
+        <v>0.02386642929718717</v>
+      </c>
+      <c r="G81">
+        <v>0.09575736307373199</v>
+      </c>
+      <c r="H81">
+        <v>0.07661174038583296</v>
+      </c>
+      <c r="I81">
+        <v>0.09005751899667776</v>
+      </c>
+      <c r="J81">
+        <v>0.03012565822826126</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B82">
-        <v>0.05920422435314426</v>
+        <v>0.05010408996178089</v>
       </c>
       <c r="C82">
-        <v>0.1600743587188471</v>
+        <v>-0.1349216490002284</v>
       </c>
       <c r="D82">
-        <v>-0.1372761070382797</v>
+        <v>-0.07157997292935177</v>
       </c>
       <c r="E82">
-        <v>-0.06797853374128435</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>-0.1215787426856448</v>
+      </c>
+      <c r="F82">
+        <v>0.00780937821433975</v>
+      </c>
+      <c r="G82">
+        <v>0.06353932038719572</v>
+      </c>
+      <c r="H82">
+        <v>0.03918629283382809</v>
+      </c>
+      <c r="I82">
+        <v>0.05601284661754447</v>
+      </c>
+      <c r="J82">
+        <v>0.01308058961755958</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B83">
-        <v>0.01324387685521189</v>
+        <v>0.004371153078058625</v>
       </c>
       <c r="C83">
-        <v>0.06096365996141023</v>
+        <v>-0.01179148272411087</v>
       </c>
       <c r="D83">
-        <v>0.05406758176261896</v>
+        <v>0.04287924660710737</v>
       </c>
       <c r="E83">
-        <v>0.01737580922485572</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.08286359817037213</v>
+      </c>
+      <c r="F83">
+        <v>-0.8976627949837189</v>
+      </c>
+      <c r="G83">
+        <v>0.3236002042889105</v>
+      </c>
+      <c r="H83">
+        <v>-0.02755524047910226</v>
+      </c>
+      <c r="I83">
+        <v>0.125949857016362</v>
+      </c>
+      <c r="J83">
+        <v>0.005455481936095442</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B84">
-        <v>-0.002912232545609664</v>
+        <v>-0.002019456058688687</v>
       </c>
       <c r="C84">
-        <v>0.03108173813990424</v>
+        <v>-0.03797362252543775</v>
       </c>
       <c r="D84">
-        <v>0.03381620819180814</v>
+        <v>-0.0436658994836045</v>
       </c>
       <c r="E84">
-        <v>0.08328656158484478</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>0.07647897166134199</v>
+      </c>
+      <c r="F84">
+        <v>0.05479742909385271</v>
+      </c>
+      <c r="G84">
+        <v>0.03819752090919198</v>
+      </c>
+      <c r="H84">
+        <v>0.05588040243614592</v>
+      </c>
+      <c r="I84">
+        <v>-0.05023063412635256</v>
+      </c>
+      <c r="J84">
+        <v>0.08145375067679485</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B85">
-        <v>0.04057589790461999</v>
+        <v>0.03147092081525323</v>
       </c>
       <c r="C85">
-        <v>0.174470043594354</v>
+        <v>-0.1424472451379968</v>
       </c>
       <c r="D85">
-        <v>-0.147274533984724</v>
+        <v>-0.08385451104753136</v>
       </c>
       <c r="E85">
-        <v>-0.07696389761402887</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>-0.1727108220498429</v>
+      </c>
+      <c r="F85">
+        <v>0.01797608621534799</v>
+      </c>
+      <c r="G85">
+        <v>0.1190103894215648</v>
+      </c>
+      <c r="H85">
+        <v>0.02818383351157917</v>
+      </c>
+      <c r="I85">
+        <v>0.07646077828809059</v>
+      </c>
+      <c r="J85">
+        <v>0.03147028716068215</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B86">
-        <v>0.03061863181033865</v>
+        <v>0.01768421629787329</v>
       </c>
       <c r="C86">
-        <v>0.0467984599684205</v>
+        <v>-0.06942693904569637</v>
       </c>
       <c r="D86">
-        <v>0.09628450323803289</v>
+        <v>0.006797778815321557</v>
       </c>
       <c r="E86">
-        <v>0.003351324742524943</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.07296911361063553</v>
+      </c>
+      <c r="F86">
+        <v>0.05802175408383705</v>
+      </c>
+      <c r="G86">
+        <v>0.05448185490833939</v>
+      </c>
+      <c r="H86">
+        <v>0.06485447852111041</v>
+      </c>
+      <c r="I86">
+        <v>0.04956972037147031</v>
+      </c>
+      <c r="J86">
+        <v>-0.1975983511517961</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B87">
-        <v>0.02316050148255363</v>
+        <v>0.01527096962219836</v>
       </c>
       <c r="C87">
-        <v>0.1191897481763461</v>
+        <v>-0.1225147609657503</v>
       </c>
       <c r="D87">
-        <v>0.1143377527283651</v>
+        <v>0.01921663354768677</v>
       </c>
       <c r="E87">
-        <v>0.09942276320975456</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>0.1079960188892557</v>
+      </c>
+      <c r="F87">
+        <v>0.02103723188535905</v>
+      </c>
+      <c r="G87">
+        <v>0.01682471256427356</v>
+      </c>
+      <c r="H87">
+        <v>0.009162611195379273</v>
+      </c>
+      <c r="I87">
+        <v>-0.1461170274463502</v>
+      </c>
+      <c r="J87">
+        <v>-0.09282154843000326</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B88">
-        <v>0.02266987488582288</v>
+        <v>0.03489220134353641</v>
       </c>
       <c r="C88">
-        <v>0.07419137839286952</v>
+        <v>-0.08314701153201647</v>
       </c>
       <c r="D88">
-        <v>-0.05479558104936456</v>
+        <v>-0.02752474331666889</v>
       </c>
       <c r="E88">
-        <v>-0.006011915660388786</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>-0.01565572817822981</v>
+      </c>
+      <c r="F88">
+        <v>0.008474469393614265</v>
+      </c>
+      <c r="G88">
+        <v>-0.02411945155960249</v>
+      </c>
+      <c r="H88">
+        <v>0.005187536681625128</v>
+      </c>
+      <c r="I88">
+        <v>0.02741196241002195</v>
+      </c>
+      <c r="J88">
+        <v>0.07196984054739732</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B89">
-        <v>0.4451848298326322</v>
+        <v>0.4083788239322693</v>
       </c>
       <c r="C89">
-        <v>-0.0963823148124041</v>
+        <v>0.1140324384221768</v>
       </c>
       <c r="D89">
-        <v>-0.0440037153070747</v>
+        <v>0.0111278017014703</v>
       </c>
       <c r="E89">
-        <v>0.2704447984872276</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.05911497007416906</v>
+      </c>
+      <c r="F89">
+        <v>-0.08736948417511897</v>
+      </c>
+      <c r="G89">
+        <v>0.09234422354759243</v>
+      </c>
+      <c r="H89">
+        <v>0.04842672958344806</v>
+      </c>
+      <c r="I89">
+        <v>-0.7535424132174441</v>
+      </c>
+      <c r="J89">
+        <v>0.1416426598759756</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B90">
-        <v>0.3234293407695831</v>
+        <v>0.3236464085986105</v>
       </c>
       <c r="C90">
-        <v>-0.04595646928529405</v>
+        <v>0.06200980439114859</v>
       </c>
       <c r="D90">
-        <v>0.06357984102682367</v>
+        <v>0.01798671079340881</v>
       </c>
       <c r="E90">
-        <v>-0.01216634324492362</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.03660681020290118</v>
+      </c>
+      <c r="F90">
+        <v>0.02078587540459206</v>
+      </c>
+      <c r="G90">
+        <v>0.0230364400333273</v>
+      </c>
+      <c r="H90">
+        <v>-0.007540591894046132</v>
+      </c>
+      <c r="I90">
+        <v>0.1550958192617898</v>
+      </c>
+      <c r="J90">
+        <v>-0.00666380937193084</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B91">
-        <v>0.04352207481214024</v>
+        <v>0.05069814068295902</v>
       </c>
       <c r="C91">
-        <v>0.1396344391054819</v>
+        <v>-0.1192419607360926</v>
       </c>
       <c r="D91">
-        <v>-0.08521722238600857</v>
+        <v>-0.03655772915102996</v>
       </c>
       <c r="E91">
-        <v>-0.05979790798299954</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>-0.09450753018980629</v>
+      </c>
+      <c r="F91">
+        <v>-0.02313447802004227</v>
+      </c>
+      <c r="G91">
+        <v>0.07016031106803737</v>
+      </c>
+      <c r="H91">
+        <v>0.0150138322989406</v>
+      </c>
+      <c r="I91">
+        <v>0.0287108554441468</v>
+      </c>
+      <c r="J91">
+        <v>0.02806154403741483</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B92">
-        <v>0.3455036216478078</v>
+        <v>0.348870764242444</v>
       </c>
       <c r="C92">
-        <v>-0.1041529383915006</v>
+        <v>0.1148835838699237</v>
       </c>
       <c r="D92">
-        <v>0.07357172019335971</v>
+        <v>0.04757256505010814</v>
       </c>
       <c r="E92">
-        <v>-0.0250467169519089</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.0676625851049297</v>
+      </c>
+      <c r="F92">
+        <v>0.1032611986849986</v>
+      </c>
+      <c r="G92">
+        <v>-0.002540325672336297</v>
+      </c>
+      <c r="H92">
+        <v>0.04204328068724153</v>
+      </c>
+      <c r="I92">
+        <v>0.1482736905593822</v>
+      </c>
+      <c r="J92">
+        <v>0.01025959479393326</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B93">
-        <v>0.3330951762033748</v>
+        <v>0.3239901786669735</v>
       </c>
       <c r="C93">
-        <v>-0.08296811940384619</v>
+        <v>0.1053157822807153</v>
       </c>
       <c r="D93">
-        <v>-0.01169354664798646</v>
+        <v>-0.003291418166408952</v>
       </c>
       <c r="E93">
-        <v>-0.02158548839909495</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>0.00121015605200024</v>
+      </c>
+      <c r="F93">
+        <v>0.02239875938255185</v>
+      </c>
+      <c r="G93">
+        <v>0.02714667449602685</v>
+      </c>
+      <c r="H93">
+        <v>0.03811048772105516</v>
+      </c>
+      <c r="I93">
+        <v>0.1159512117477413</v>
+      </c>
+      <c r="J93">
+        <v>-0.04995585579070157</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B94">
-        <v>0.09420891051764095</v>
+        <v>0.08568269799599339</v>
       </c>
       <c r="C94">
-        <v>0.2370261609903081</v>
+        <v>-0.2020078962334054</v>
       </c>
       <c r="D94">
-        <v>-0.2585120847572419</v>
+        <v>-0.115415227616976</v>
       </c>
       <c r="E94">
-        <v>-0.1228772471466312</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>-0.3353543916852373</v>
+      </c>
+      <c r="F94">
+        <v>0.06358710677921479</v>
+      </c>
+      <c r="G94">
+        <v>0.3520099895549686</v>
+      </c>
+      <c r="H94">
+        <v>-0.05413632146774447</v>
+      </c>
+      <c r="I94">
+        <v>-0.2049474608769476</v>
+      </c>
+      <c r="J94">
+        <v>0.1840402800986867</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B95">
-        <v>0.0241280838713008</v>
+        <v>0.03181509187347148</v>
       </c>
       <c r="C95">
-        <v>0.07025930738548193</v>
+        <v>-0.1131096556846413</v>
       </c>
       <c r="D95">
-        <v>-0.008399196697222933</v>
+        <v>-0.007113403556767747</v>
       </c>
       <c r="E95">
-        <v>0.004535852080397817</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.002920875732320845</v>
+      </c>
+      <c r="F95">
+        <v>0.01261083248233532</v>
+      </c>
+      <c r="G95">
+        <v>-0.1254403901490853</v>
+      </c>
+      <c r="H95">
+        <v>0.050334511159703</v>
+      </c>
+      <c r="I95">
+        <v>-0.009920277241413216</v>
+      </c>
+      <c r="J95">
+        <v>0.1164982300383341</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,61 +3766,121 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.004491197530470338</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>-0.008126391210470766</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>0.02042052357332723</v>
       </c>
       <c r="E97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>0.01818499195718311</v>
+      </c>
+      <c r="F97">
+        <v>0.01191218253309836</v>
+      </c>
+      <c r="G97">
+        <v>-0.03623964421831091</v>
+      </c>
+      <c r="H97">
+        <v>-0.01511162134383247</v>
+      </c>
+      <c r="I97">
+        <v>0.00590858543537407</v>
+      </c>
+      <c r="J97">
+        <v>-0.01026505836934384</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B98">
-        <v>0.07756958299596381</v>
+        <v>0.1268923646132952</v>
       </c>
       <c r="C98">
-        <v>0.1549901077000058</v>
+        <v>-0.1762912615639573</v>
       </c>
       <c r="D98">
-        <v>-0.03582805608217637</v>
+        <v>-0.05692243593223111</v>
       </c>
       <c r="E98">
-        <v>-0.01178390748335453</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.07374057052367888</v>
+      </c>
+      <c r="F98">
+        <v>-0.1029461459237591</v>
+      </c>
+      <c r="G98">
+        <v>-0.3450770700459357</v>
+      </c>
+      <c r="H98">
+        <v>-0.3423414216881934</v>
+      </c>
+      <c r="I98">
+        <v>-0.03581981395935009</v>
+      </c>
+      <c r="J98">
+        <v>-0.1371955394378222</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>0.001384495258475374</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>-0.007964439134770544</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>0.009280662787353431</v>
       </c>
       <c r="E99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
+        <v>0.0056420714078681</v>
+      </c>
+      <c r="F99">
+        <v>0.0007558027096716943</v>
+      </c>
+      <c r="G99">
+        <v>-0.005149099984684422</v>
+      </c>
+      <c r="H99">
+        <v>0.01907839274679069</v>
+      </c>
+      <c r="I99">
+        <v>-0.02008624714248623</v>
+      </c>
+      <c r="J99">
+        <v>0.006696147967414479</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,44 +3894,89 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B101">
-        <v>-0.001034556335255997</v>
+        <v>0.005964306721809498</v>
       </c>
       <c r="C101">
-        <v>0.05833235551390138</v>
+        <v>-0.08061088968745451</v>
       </c>
       <c r="D101">
-        <v>0.04695884408174997</v>
+        <v>-0.01872827586988643</v>
       </c>
       <c r="E101">
-        <v>0.08843833484090577</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.1313359911528598</v>
+      </c>
+      <c r="F101">
+        <v>-0.05890239405000578</v>
+      </c>
+      <c r="G101">
+        <v>-0.1454574851296493</v>
+      </c>
+      <c r="H101">
+        <v>0.2378964256813292</v>
+      </c>
+      <c r="I101">
+        <v>-0.05063629139334281</v>
+      </c>
+      <c r="J101">
+        <v>0.2558331996378923</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B102">
-        <v>0.0210990143197262</v>
+        <v>0.008939074934884435</v>
       </c>
       <c r="C102">
-        <v>0.0881080352915394</v>
+        <v>-0.04239882682211664</v>
       </c>
       <c r="D102">
-        <v>-0.06572325993194809</v>
+        <v>-0.01944114098192447</v>
       </c>
       <c r="E102">
-        <v>-0.03555839194989822</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>-0.05248897149967804</v>
+      </c>
+      <c r="F102">
+        <v>-0.007898322046413419</v>
+      </c>
+      <c r="G102">
+        <v>0.04637153696329544</v>
+      </c>
+      <c r="H102">
+        <v>0.01098382978156996</v>
+      </c>
+      <c r="I102">
+        <v>-0.007138489338898511</v>
+      </c>
+      <c r="J102">
+        <v>0.007784382717814733</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +3990,25 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +4020,21 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
         <v>0</v>
       </c>
     </row>
